--- a/DMSNewVSale_2025-12-08_13-03.xlsx
+++ b/DMSNewVSale_2025-12-08_13-03.xlsx
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>70.0000</t>
+  </si>
+  <si>
+    <t>لزق بثور</t>
   </si>
   <si>
     <t xml:space="preserve">لونا سوفت 50مل </t>
@@ -1964,7 +1967,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1974,11 +1977,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -1990,14 +1993,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2007,51 +2010,84 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="38" ht="25.5" customHeight="1">
-      <c r="N38" s="13">
-        <v>1580.99</v>
-      </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>114</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
         <v>115</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>72</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>112</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" ht="26.25" customHeight="1">
+      <c r="N39" s="13">
+        <v>1665.99</v>
+      </c>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>116</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
         <v>117</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>118</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2215,10 +2251,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
